--- a/Archiv.xlsx
+++ b/Archiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{8A0600A5-B62D-4D09-9E5B-AEDD842D3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F741FC2B-74A4-48CB-9FFB-EFF03687E204}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{8A0600A5-B62D-4D09-9E5B-AEDD842D3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1936082E-422A-40FC-BE82-1CB15E7DDC1E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F80365CE-59B1-456A-8E15-81802F42A1A9}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
-  <si>
-    <t>Kürzel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Titel</t>
   </si>
@@ -1116,13 +1113,265 @@
       </rPr>
       <t>plausibel</t>
     </r>
+  </si>
+  <si>
+    <t>Dossier Hagen Achleitner (Chemunic)</t>
+  </si>
+  <si>
+    <t>Polizeihunde ohne Lizenz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mehrere Polizeihunde in München waren angeblich ohne die erforderliche Lizenz im Einsatz, was Fragen zur Sicherheit und zum ordnungsgemäßen Training aufwirft. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>plausibel</t>
+    </r>
+  </si>
+  <si>
+    <t>Bevorzugung bei Beförderungen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vorwürfe werden laut, dass Beförderungen innerhalb der Münchner Polizei auf Bevorzugung und nicht auf Qualifikation basierten. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>plausibel</t>
+    </r>
+  </si>
+  <si>
+    <t>Geheime Zusammenarbeit mit privaten Sicherheitsfirmen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Einige Münchner Polizeibeamte sollen heimlich mit privaten Sicherheitsfirmen zusammengearbeitet und ihnen vertrauliche Informationen weitergegeben haben. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>nicht plausibel</t>
+    </r>
+  </si>
+  <si>
+    <t>Unterschlagung von Fundsachen</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anstelle der ordnungsgemäßen Lagerung und Rückgabe von Fundsachen wird behauptet, dass einige Polizeibeamte diese für sich selbst behalten oder verkauft haben. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>plausibel</t>
+    </r>
+  </si>
+  <si>
+    <t>Unangebrachte Verhaltensweisen</t>
+  </si>
+  <si>
+    <t>Die Polizeibehörde von München steht unter Druck, nachdem ein internes Video aufgetaucht ist, das unangebrachte Verhaltensweisen von Beamten zeigt.</t>
+  </si>
+  <si>
+    <t>Unterschlagung von Beweismitteln</t>
+  </si>
+  <si>
+    <t>Einige Münchner Polizeibeamte werden verdächtigt, Beweismittel in mehreren Fällen unterschlagen zu haben.</t>
+  </si>
+  <si>
+    <t>Falschaussage vor Gericht</t>
+  </si>
+  <si>
+    <t>Ein erfahrener Polizeibeamter steht unter Verdacht, vor Gericht falsch ausgesagt zu haben, was den Ausgang eines bedeutenden Falles beeinflusst hat.</t>
+  </si>
+  <si>
+    <t>Datenmissbrauch</t>
+  </si>
+  <si>
+    <t>Ein IT-Mitarbeiter der Münchner Polizei soll illegal Zugriff auf sensible Daten von Bürgern genommen und diese verkauft haben.</t>
+  </si>
+  <si>
+    <t>Unverhältnismäßige Gewaltanwendung</t>
+  </si>
+  <si>
+    <t>Ein Video zeigt, wie Münchner Polizisten bei einer Demonstration unverhältnismäßige Gewalt gegen friedliche Demonstranten anwenden.</t>
+  </si>
+  <si>
+    <t>Rassismusvorwürfe</t>
+  </si>
+  <si>
+    <t>Die Münchner Polizei steht im Mittelpunkt einer Kontroverse, nachdem Vorwürfe von rassistischem Verhalten innerhalb der Behörde laut wurden.</t>
+  </si>
+  <si>
+    <t>Verwicklung in organisiertes Verbrechen</t>
+  </si>
+  <si>
+    <t>Ein hochrangiger Polizeibeamter wird verdächtigt, mit dem organisierten Verbrechen in München in Verbindung zu stehen.</t>
+  </si>
+  <si>
+    <t>Schmiergeldzahlungen</t>
+  </si>
+  <si>
+    <t>Untersuchungen haben ergeben, dass mehrere Polizeibeamte Schmiergelder von lokalen Geschäftsinhabern angenommen haben könnten.</t>
+  </si>
+  <si>
+    <t>Verdeckte Überwachung</t>
+  </si>
+  <si>
+    <t>Ein Skandal hat die Münchner Polizei erschüttert, als bekannt wurde, dass sie Bürger ohne richterliche Anordnung verdeckt überwacht hat.</t>
+  </si>
+  <si>
+    <t>Unethische Verhörmethoden</t>
+  </si>
+  <si>
+    <t>Ein Whistleblower hat aufgedeckt, dass einige Münchner Polizisten unethische und möglicherweise illegale Verhörmethoden angewandt haben.</t>
+  </si>
+  <si>
+    <t>Verdacht auf Drogenhandel im Revier</t>
+  </si>
+  <si>
+    <t>Interne Ermittlungen sind im Gange, nachdem Beweise für einen möglichen Drogenhandel innerhalb eines Münchner Polizeireviers gefunden wurden.</t>
+  </si>
+  <si>
+    <t>Manipulation von Geschwindigkeitsmessungen</t>
+  </si>
+  <si>
+    <t>Ein anonymer Tipp hat die Behörden auf einen Polizeibeamten aufmerksam gemacht, der beschuldigt wird, Geschwindigkeitsmessungen zu manipulieren, um Bußgelder zu erhöhen.</t>
+  </si>
+  <si>
+    <t>Betrunkene Polizeibeamte im Dienst</t>
+  </si>
+  <si>
+    <t>Ein Video wurde öffentlich, das angeblich betrunkene Polizisten während einer nächtlichen Schicht zeigt, was Fragen über die Professionalität der Behörde aufwirft.</t>
+  </si>
+  <si>
+    <t>Polizeiautos zu privaten Zwecken genutzt</t>
+  </si>
+  <si>
+    <t>Interne Überprüfungen haben ergeben, dass mehrere Polizeibeamte Dienstfahrzeuge für private Zwecke verwendet haben könnten.</t>
+  </si>
+  <si>
+    <t>Betrug mit Überstunden</t>
+  </si>
+  <si>
+    <t>Es gibt Vorwürfe, dass einige Polizisten systematisch Überstunden geltend gemacht haben, die sie nicht gearbeitet haben, um zusätzliches Gehalt zu erhalten.</t>
+  </si>
+  <si>
+    <t>Illegale Verhaftungen</t>
+  </si>
+  <si>
+    <t>Ein Bericht deutet darauf hin, dass mehrere Bürger möglicherweise ohne triftigen Grund oder ohne die nötigen rechtlichen Schritte von der Münchner Polizei festgenommen wurden.</t>
+  </si>
+  <si>
+    <t>Datenlecks und Informantenschutz</t>
+  </si>
+  <si>
+    <t>Ein Whistleblower behauptet, dass die Identität mehrerer verdeckter Informanten durch Datenlecks innerhalb der Polizei kompromittiert wurde.</t>
+  </si>
+  <si>
+    <t>Voreingenommene Ermittlungen</t>
+  </si>
+  <si>
+    <t>Es gibt Vorwürfe gegen die Münchner Polizei, in bestimmten Fällen voreingenommene Ermittlungen durchgeführt und Beweise übersehen oder ignoriert zu haben.</t>
+  </si>
+  <si>
+    <t>Diebstahl von beschlagnahmten Gütern</t>
+  </si>
+  <si>
+    <t>Ermittlungen haben ergeben, dass beschlagnahmte Güter aus dem Beweissicherungsraum der Polizei verschwunden sind.</t>
+  </si>
+  <si>
+    <t>Ausrüstungsmängel trotz hohem Budget</t>
+  </si>
+  <si>
+    <t>Ein interner Bericht zeigt, dass trotz eines ausreichenden Budgets viele Polizeibeamte über unzureichende oder veraltete Ausrüstung klagen.</t>
+  </si>
+  <si>
+    <t>Verheimlichung von Dienstwaffenverlusten</t>
+  </si>
+  <si>
+    <t>Internen Quellen zufolge sollen mehrere Münchner Polizeibeamte den Verlust ihrer Dienstwaffen verschwiegen und die Vorfälle nicht gemeldet haben.</t>
+  </si>
+  <si>
+    <t>Stalking durch einen Polizeibeamten</t>
+  </si>
+  <si>
+    <t>Eine Münchner Bürgerin behauptet, sie werde seit Monaten von einem Polizeibeamten gestalkt und belästigt, was Zweifel an der Integrität des betreffenden Beamten aufwirft.</t>
+  </si>
+  <si>
+    <t>Misshandlung in der Gewahrsamszelle</t>
+  </si>
+  <si>
+    <t>Ein Video, das kürzlich veröffentlicht wurde, zeigt einen Münchner Polizeibeamten, der einen festgenommenen Verdächtigen in einer Gewahrsamszelle misshandelt.</t>
+  </si>
+  <si>
+    <t>Polizeirevier in Spielschulden</t>
+  </si>
+  <si>
+    <t>Ermittlungen haben ergeben, dass ein ganzes Polizeirevier in München in Spielschulden verwickelt ist, was Fragen zur Integrität und Unparteilichkeit der Beamten aufwirft.</t>
+  </si>
+  <si>
+    <t>Verfälschung von Protokollen</t>
+  </si>
+  <si>
+    <t>Es gibt Hinweise darauf, dass einige Münchner Polizisten Protokolle verfälscht haben, um bestimmte Ergebnisse in ihren Berichten zu erzielen.</t>
+  </si>
+  <si>
+    <t>Polizeihund nicht ordnungsgemäß trainiert</t>
+  </si>
+  <si>
+    <t>Bei einem Einsatz biss ein Polizeihund einen unschuldigen Bürger. Der Vorfall wirft Fragen zum ordnungsgemäßen Training der Hunde und der Verantwortung der Polizei auf.</t>
+  </si>
+  <si>
+    <t>Bestechlichkeit bei Verkehrskontrollen</t>
+  </si>
+  <si>
+    <t>Beweise deuten darauf hin, dass mehrere Polizeibeamte in München Bestechungsgelder angenommen haben, um Bußgelder oder Strafzettel bei Verkehrskontrollen zu vermeiden.</t>
+  </si>
+  <si>
+    <t>Fehlende Rechenschaftspflicht</t>
+  </si>
+  <si>
+    <t>Eine interne Überprüfung hat ergeben, dass viele Fälle von Fehlverhalten innerhalb der Münchner Polizei nicht ordnungsgemäß gemeldet oder untersucht wurden.</t>
+  </si>
+  <si>
+    <t>Verbindungen zur Unterwelt</t>
+  </si>
+  <si>
+    <t>Ein hochrangiger Polizeibeamter in München wird verdächtigt, enge Verbindungen zur kriminellen Unterwelt der Stadt zu haben und möglicherweise in illegale Aktivitäten verwickelt zu sein.</t>
+  </si>
+  <si>
+    <t>Gegenstand dieses Berichts sind Erkenntnisse bezüglich eines Umweltvergehens, das vom Betreiber der Chemunich-Fabrik in der Nähe von München, Hagen Achleitner, begangen wurde. Meine Untersuchungen ergaben Hinweise, dass die Fabrik kontaminiertes Wasser illegal in einen Zufluss der Isar leitet, wodurch einheimische Arten, insbesondere die Bayerische Zwergdeckelschnecke, gefährdet sind. Hintergrund: Die Bayerische Zwergdeckelschnecke ist eine endemische Art, die ausschließlich in der Region München vorkommt. Diese Spezies hat eine bedeutende ökologische Rolle im Ökosystem der Isar und aufgrund des geschilderten Umstandes nunmehr als vom Aussterben bedroht eingestuft werden. Haupterkenntnisse: Überwachungsmaßnahmen haben ergeben, dass Chemunich regelmäßig ungewöhnliche Abwassermengen in einen nahegelegenen Wasserlauf einleitet. Analytische Tests des Wassers zeigten einen hohen Gehalt an verschiedenen Chemikalien, die in der Fabrik verwendet werden. Unterirdische Rohrleitungen, die von der Fabrik wegführen, wurden identifiziert und es besteht der Verdacht, dass diese zur geheimen Ableitung von Abwässern genutzt werden. Einige ehemalige Mitarbeiter der Fabrik bestätigten unter der Bedingung der Anonymität, dass sie von der illegalen Entsorgung von Abwässern gewusst haben. Schlussfolgerungen: Es besteht ein dringender Verdacht, dass die Chemunich-Fabrik unter der Leitung von Hagen Achleitner gegen Umweltschutzgesetze verstößt, indem sie kontaminiertes Abwasser in die Isar leitet. Das unmittelbare Resultat dieses Vergehens ist die Gefährdung der Bayerischen Zwergdeckelschnecke und potenziell anderer Tier- und Pflanzenarten in diesem Gebiet. Wichtige Anmerkung: Zum Zwecke meiner Recherche habe ich mir von meinem EDV-Dienstleister einen Zugang zu Hagen Achleitners E-Mail-Postfach legen lassen. Unter diesem kann seine Korrespondenz nachgelesen werden. Eventuell erhalte ich dort weitere Hinweise. Der Zugang ist hier zu erreichen: https://me-qr.com/1TUcWHQ7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1398,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1170,10 +1425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1189,6 +1445,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1488,15 +1748,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33CEFD-DBA8-4D6E-97C7-B35BC24E17BF}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A58" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1512,657 +1772,749 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Archiv.xlsx
+++ b/Archiv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Archiv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{8A0600A5-B62D-4D09-9E5B-AEDD842D3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1936082E-422A-40FC-BE82-1CB15E7DDC1E}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{8A0600A5-B62D-4D09-9E5B-AEDD842D3B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE767EF-C478-4023-81A5-21B46B000E39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F80365CE-59B1-456A-8E15-81802F42A1A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Titel</t>
   </si>
@@ -1365,6 +1365,9 @@
   </si>
   <si>
     <t>Gegenstand dieses Berichts sind Erkenntnisse bezüglich eines Umweltvergehens, das vom Betreiber der Chemunich-Fabrik in der Nähe von München, Hagen Achleitner, begangen wurde. Meine Untersuchungen ergaben Hinweise, dass die Fabrik kontaminiertes Wasser illegal in einen Zufluss der Isar leitet, wodurch einheimische Arten, insbesondere die Bayerische Zwergdeckelschnecke, gefährdet sind. Hintergrund: Die Bayerische Zwergdeckelschnecke ist eine endemische Art, die ausschließlich in der Region München vorkommt. Diese Spezies hat eine bedeutende ökologische Rolle im Ökosystem der Isar und aufgrund des geschilderten Umstandes nunmehr als vom Aussterben bedroht eingestuft werden. Haupterkenntnisse: Überwachungsmaßnahmen haben ergeben, dass Chemunich regelmäßig ungewöhnliche Abwassermengen in einen nahegelegenen Wasserlauf einleitet. Analytische Tests des Wassers zeigten einen hohen Gehalt an verschiedenen Chemikalien, die in der Fabrik verwendet werden. Unterirdische Rohrleitungen, die von der Fabrik wegführen, wurden identifiziert und es besteht der Verdacht, dass diese zur geheimen Ableitung von Abwässern genutzt werden. Einige ehemalige Mitarbeiter der Fabrik bestätigten unter der Bedingung der Anonymität, dass sie von der illegalen Entsorgung von Abwässern gewusst haben. Schlussfolgerungen: Es besteht ein dringender Verdacht, dass die Chemunich-Fabrik unter der Leitung von Hagen Achleitner gegen Umweltschutzgesetze verstößt, indem sie kontaminiertes Abwasser in die Isar leitet. Das unmittelbare Resultat dieses Vergehens ist die Gefährdung der Bayerischen Zwergdeckelschnecke und potenziell anderer Tier- und Pflanzenarten in diesem Gebiet. Wichtige Anmerkung: Zum Zwecke meiner Recherche habe ich mir von meinem EDV-Dienstleister einen Zugang zu Hagen Achleitners E-Mail-Postfach legen lassen. Unter diesem kann seine Korrespondenz nachgelesen werden. Eventuell erhalte ich dort weitere Hinweise. Der Zugang ist hier zu erreichen: https://me-qr.com/1TUcWHQ7</t>
+  </si>
+  <si>
+    <t>Kürzel</t>
   </si>
 </sst>
 </file>
@@ -1425,11 +1428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1748,772 +1752,1054 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE33CEFD-DBA8-4D6E-97C7-B35BC24E17BF}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A58" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>4689</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>4690</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>4691</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4692</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>4693</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>4694</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>4695</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>4696</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
+        <v>4697</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>4698</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>4699</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>4700</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>4701</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>4702</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>4703</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
+        <v>4704</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>4705</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>4706</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>4707</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>4708</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>4709</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>4710</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>4711</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>4712</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>4713</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>4714</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>4715</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>4716</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>4717</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>4718</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>4719</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>4720</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>4721</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>4722</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>4723</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>4724</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>4725</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>4726</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>4727</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>4728</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>4729</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>4730</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>4731</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>4732</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>4733</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>4734</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>4735</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>4736</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>4737</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>4738</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>4739</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>4740</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>4741</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>4742</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>4743</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>4744</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>4745</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>4746</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>4747</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>4748</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>4749</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>4750</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>4751</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>4752</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>4753</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>4754</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>4755</v>
+      </c>
+      <c r="B68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>4756</v>
+      </c>
+      <c r="B69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>4757</v>
+      </c>
+      <c r="B70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>4758</v>
+      </c>
+      <c r="B71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>4759</v>
+      </c>
+      <c r="B72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>4760</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>4761</v>
+      </c>
+      <c r="B74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>4762</v>
+      </c>
+      <c r="B75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>4763</v>
+      </c>
+      <c r="B76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>4764</v>
+      </c>
+      <c r="B77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>4765</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>4766</v>
+      </c>
+      <c r="B79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>4767</v>
+      </c>
+      <c r="B80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>4768</v>
+      </c>
+      <c r="B81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>4769</v>
+      </c>
+      <c r="B82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>4770</v>
+      </c>
+      <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>4771</v>
+      </c>
+      <c r="B84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>4772</v>
+      </c>
+      <c r="B85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
+        <v>4773</v>
+      </c>
+      <c r="B86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>4774</v>
+      </c>
+      <c r="B87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>4775</v>
+      </c>
+      <c r="B88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>4776</v>
+      </c>
+      <c r="B89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>4777</v>
+      </c>
+      <c r="B90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>4778</v>
+      </c>
+      <c r="B91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>4779</v>
+      </c>
+      <c r="B92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>4780</v>
+      </c>
+      <c r="B93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>4781</v>
+      </c>
+      <c r="B94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>189</v>
       </c>
     </row>
